--- a/data/pca/factorExposure/factorExposure_2012-06-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-06-26.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01740804372047405</v>
+        <v>-0.02239456036445122</v>
       </c>
       <c r="C2">
-        <v>0.02888973522182562</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.02357162627998724</v>
+      </c>
+      <c r="D2">
+        <v>0.004434824374574008</v>
+      </c>
+      <c r="E2">
+        <v>0.0199642255414461</v>
+      </c>
+      <c r="F2">
+        <v>0.001811487274129251</v>
+      </c>
+      <c r="G2">
+        <v>0.009913794247214534</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +757,45 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06722687085988968</v>
+        <v>-0.07570262123043171</v>
       </c>
       <c r="C4">
-        <v>0.06227420218518327</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.04180236575826196</v>
+      </c>
+      <c r="D4">
+        <v>0.07077256868138626</v>
+      </c>
+      <c r="E4">
+        <v>-0.002028404918626647</v>
+      </c>
+      <c r="F4">
+        <v>0.0299385557150367</v>
+      </c>
+      <c r="G4">
+        <v>-0.01198432947106702</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +803,275 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.09709391233798403</v>
+        <v>-0.1138997715603987</v>
       </c>
       <c r="C6">
-        <v>0.06960188319312244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.04599382772575009</v>
+      </c>
+      <c r="D6">
+        <v>0.009338870612651731</v>
+      </c>
+      <c r="E6">
+        <v>0.004109769856675929</v>
+      </c>
+      <c r="F6">
+        <v>0.04331831599353537</v>
+      </c>
+      <c r="G6">
+        <v>0.004167418598084948</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.04407497670120837</v>
+        <v>-0.05434555697544562</v>
       </c>
       <c r="C7">
-        <v>0.03487348886382746</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.02585030499006016</v>
+      </c>
+      <c r="D7">
+        <v>0.03435998920237293</v>
+      </c>
+      <c r="E7">
+        <v>0.02260561229706673</v>
+      </c>
+      <c r="F7">
+        <v>0.03344377979990073</v>
+      </c>
+      <c r="G7">
+        <v>-0.04076473130776705</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.03258375539673478</v>
+        <v>-0.03503183714625562</v>
       </c>
       <c r="C8">
-        <v>0.02825197945339427</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.0170010059906678</v>
+      </c>
+      <c r="D8">
+        <v>0.03977091754765925</v>
+      </c>
+      <c r="E8">
+        <v>0.006661563226712889</v>
+      </c>
+      <c r="F8">
+        <v>0.04541495491648351</v>
+      </c>
+      <c r="G8">
+        <v>0.02236786807819649</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.06245680370379696</v>
+        <v>-0.07196288820727519</v>
       </c>
       <c r="C9">
-        <v>0.0475621631685906</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.02990417135020904</v>
+      </c>
+      <c r="D9">
+        <v>0.06929353451771397</v>
+      </c>
+      <c r="E9">
+        <v>0.01429482400250378</v>
+      </c>
+      <c r="F9">
+        <v>0.03950884847208545</v>
+      </c>
+      <c r="G9">
+        <v>-0.00609018219386903</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.02687929169473204</v>
+        <v>-0.03955605931027152</v>
       </c>
       <c r="C10">
-        <v>0.04006854648418601</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.04058275479514807</v>
+      </c>
+      <c r="D10">
+        <v>-0.185251825057567</v>
+      </c>
+      <c r="E10">
+        <v>0.05028890275765609</v>
+      </c>
+      <c r="F10">
+        <v>0.03731282934092873</v>
+      </c>
+      <c r="G10">
+        <v>-0.03051870840974096</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.06810316618510177</v>
+        <v>-0.07566392062799099</v>
       </c>
       <c r="C11">
-        <v>0.05464724893051835</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.03177503830202311</v>
+      </c>
+      <c r="D11">
+        <v>0.06857914316131435</v>
+      </c>
+      <c r="E11">
+        <v>-0.009296678719779315</v>
+      </c>
+      <c r="F11">
+        <v>0.0380219190804319</v>
+      </c>
+      <c r="G11">
+        <v>-0.02134261103706577</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.05181584570809127</v>
+        <v>-0.06099944514771207</v>
       </c>
       <c r="C12">
-        <v>0.05329045556403159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.03654970213555152</v>
+      </c>
+      <c r="D12">
+        <v>0.05202431481734042</v>
+      </c>
+      <c r="E12">
+        <v>0.00967163173054366</v>
+      </c>
+      <c r="F12">
+        <v>0.02891018713709497</v>
+      </c>
+      <c r="G12">
+        <v>-0.02354265941606261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.05821865823831288</v>
+        <v>-0.06519367494507486</v>
       </c>
       <c r="C13">
-        <v>0.05403621482920149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.03286668917987016</v>
+      </c>
+      <c r="D13">
+        <v>0.05195175451492905</v>
+      </c>
+      <c r="E13">
+        <v>0.004393179478681494</v>
+      </c>
+      <c r="F13">
+        <v>0.02003579573626751</v>
+      </c>
+      <c r="G13">
+        <v>-0.005834342368465173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.03308134875988725</v>
+        <v>-0.03822885720922785</v>
       </c>
       <c r="C14">
-        <v>0.02680079216554895</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.01974474872799683</v>
+      </c>
+      <c r="D14">
+        <v>0.009764674882645047</v>
+      </c>
+      <c r="E14">
+        <v>0.01138583783704476</v>
+      </c>
+      <c r="F14">
+        <v>0.01463099940109774</v>
+      </c>
+      <c r="G14">
+        <v>0.002839557926979755</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>-0.03951550926518986</v>
+        <v>-0.04054803694390244</v>
       </c>
       <c r="C15">
-        <v>0.01415526360572643</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.003904599244200251</v>
+      </c>
+      <c r="D15">
+        <v>0.01799169682202545</v>
+      </c>
+      <c r="E15">
+        <v>0.03755482303228527</v>
+      </c>
+      <c r="F15">
+        <v>-0.0001709251647411171</v>
+      </c>
+      <c r="G15">
+        <v>0.01817838752906195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.05684343616864297</v>
+        <v>-0.06202530329813522</v>
       </c>
       <c r="C16">
-        <v>0.04529961836113393</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.02775721799435251</v>
+      </c>
+      <c r="D16">
+        <v>0.06083294791038136</v>
+      </c>
+      <c r="E16">
+        <v>-0.001128351717753592</v>
+      </c>
+      <c r="F16">
+        <v>0.03239529559685479</v>
+      </c>
+      <c r="G16">
+        <v>-0.009168877704324755</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1079,22 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1102,22 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.06179828772690277</v>
+        <v>-0.0618394404015794</v>
       </c>
       <c r="C20">
-        <v>0.03824711205344019</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.01794032291846792</v>
+      </c>
+      <c r="D20">
+        <v>0.04872247633591126</v>
+      </c>
+      <c r="E20">
+        <v>0.01665792614485169</v>
+      </c>
+      <c r="F20">
+        <v>0.02880491501598205</v>
+      </c>
+      <c r="G20">
+        <v>-0.02127558935588601</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.02770298695340852</v>
+        <v>-0.0236336686857343</v>
       </c>
       <c r="C21">
-        <v>-0.0004484733855125149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.01111573056213787</v>
+      </c>
+      <c r="D21">
+        <v>0.03225280658276797</v>
+      </c>
+      <c r="E21">
+        <v>0.09491807035001593</v>
+      </c>
+      <c r="F21">
+        <v>-0.00946353678483434</v>
+      </c>
+      <c r="G21">
+        <v>0.01092521070330827</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.06904246225032205</v>
+        <v>-0.06590982196061365</v>
       </c>
       <c r="C22">
-        <v>0.07529527616764617</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.04434491999662632</v>
+      </c>
+      <c r="D22">
+        <v>0.1062422007908525</v>
+      </c>
+      <c r="E22">
+        <v>0.6100431500328209</v>
+      </c>
+      <c r="F22">
+        <v>-0.1478379428921241</v>
+      </c>
+      <c r="G22">
+        <v>-0.01900721428308255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.06977885198191945</v>
+        <v>-0.0666357815085775</v>
       </c>
       <c r="C23">
-        <v>0.07484311638848638</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.04377672328725864</v>
+      </c>
+      <c r="D23">
+        <v>0.1073524226633575</v>
+      </c>
+      <c r="E23">
+        <v>0.6092975365928193</v>
+      </c>
+      <c r="F23">
+        <v>-0.1476685912976608</v>
+      </c>
+      <c r="G23">
+        <v>-0.01687415448680797</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.06469701266789595</v>
+        <v>-0.07395707845333212</v>
       </c>
       <c r="C24">
-        <v>0.05397574744512197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.03337005885585469</v>
+      </c>
+      <c r="D24">
+        <v>0.06563822022504304</v>
+      </c>
+      <c r="E24">
+        <v>0.007022191019828559</v>
+      </c>
+      <c r="F24">
+        <v>0.04545981463467132</v>
+      </c>
+      <c r="G24">
+        <v>-0.009696547639151898</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.06393148775023677</v>
+        <v>-0.07169648996588823</v>
       </c>
       <c r="C25">
-        <v>0.05920804419307605</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.03855025111480873</v>
+      </c>
+      <c r="D25">
+        <v>0.06541320521370608</v>
+      </c>
+      <c r="E25">
+        <v>0.007712607504038031</v>
+      </c>
+      <c r="F25">
+        <v>0.03917027459691556</v>
+      </c>
+      <c r="G25">
+        <v>-0.0005601619141834768</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.03866912903733662</v>
+        <v>-0.04068407831675477</v>
       </c>
       <c r="C26">
-        <v>0.01440330588032214</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.005417436911152498</v>
+      </c>
+      <c r="D26">
+        <v>0.02150662346057138</v>
+      </c>
+      <c r="E26">
+        <v>0.0387356747269004</v>
+      </c>
+      <c r="F26">
+        <v>0.02190670132108888</v>
+      </c>
+      <c r="G26">
+        <v>-0.01592679316695185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1309,229 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.04839210131715919</v>
+        <v>-0.0726719996392087</v>
       </c>
       <c r="C28">
-        <v>0.0755317387837233</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.07687385579820868</v>
+      </c>
+      <c r="D28">
+        <v>-0.3248745058071118</v>
+      </c>
+      <c r="E28">
+        <v>0.0423879969624204</v>
+      </c>
+      <c r="F28">
+        <v>0.04992915412301668</v>
+      </c>
+      <c r="G28">
+        <v>0.03135903402371792</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.03495099696245453</v>
+        <v>-0.04209756086581609</v>
       </c>
       <c r="C29">
-        <v>0.03196383790124797</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.02458940973902846</v>
+      </c>
+      <c r="D29">
+        <v>0.009718721839788797</v>
+      </c>
+      <c r="E29">
+        <v>0.03750543073469893</v>
+      </c>
+      <c r="F29">
+        <v>0.0117302107927222</v>
+      </c>
+      <c r="G29">
+        <v>-0.01053757973039524</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.1147980105854051</v>
+        <v>-0.129637689538417</v>
       </c>
       <c r="C30">
-        <v>0.0991321037265753</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.06425617060198724</v>
+      </c>
+      <c r="D30">
+        <v>0.1022383205634984</v>
+      </c>
+      <c r="E30">
+        <v>0.03381439206338951</v>
+      </c>
+      <c r="F30">
+        <v>0.01758880768569095</v>
+      </c>
+      <c r="G30">
+        <v>-0.003273711938511296</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.03748924099278712</v>
+        <v>-0.04263375647045229</v>
       </c>
       <c r="C31">
-        <v>0.02613487169166271</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01532182089451603</v>
+      </c>
+      <c r="D31">
+        <v>0.02834183653964323</v>
+      </c>
+      <c r="E31">
+        <v>0.02078504759100881</v>
+      </c>
+      <c r="F31">
+        <v>0.01512831631959629</v>
+      </c>
+      <c r="G31">
+        <v>-0.02312487248788826</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.03141029047303107</v>
+        <v>-0.03220452231666178</v>
       </c>
       <c r="C32">
-        <v>0.02538942244667493</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.01615269155123613</v>
+      </c>
+      <c r="D32">
+        <v>0.01893252615771675</v>
+      </c>
+      <c r="E32">
+        <v>0.05865992966855346</v>
+      </c>
+      <c r="F32">
+        <v>-0.01235761511280873</v>
+      </c>
+      <c r="G32">
+        <v>0.02248650419774206</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.07448648087030293</v>
+        <v>-0.08791641528684069</v>
       </c>
       <c r="C33">
-        <v>0.05365923385536597</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.03420600120881145</v>
+      </c>
+      <c r="D33">
+        <v>0.06512053081127889</v>
+      </c>
+      <c r="E33">
+        <v>0.009898530039638748</v>
+      </c>
+      <c r="F33">
+        <v>0.007812784454417484</v>
+      </c>
+      <c r="G33">
+        <v>-0.02177490215486938</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05006923092414726</v>
+        <v>-0.05630778837498383</v>
       </c>
       <c r="C34">
-        <v>0.03401981923551105</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01903230304081536</v>
+      </c>
+      <c r="D34">
+        <v>0.05922879465566382</v>
+      </c>
+      <c r="E34">
+        <v>0.003409811472586588</v>
+      </c>
+      <c r="F34">
+        <v>0.02709849916076809</v>
+      </c>
+      <c r="G34">
+        <v>-0.002663438853185727</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>-0.03665252388934592</v>
+        <v>-0.0387561565604765</v>
       </c>
       <c r="C35">
-        <v>0.01402090789430745</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.005492099603804846</v>
+      </c>
+      <c r="D35">
+        <v>0.01033683396185618</v>
+      </c>
+      <c r="E35">
+        <v>0.02877835368957394</v>
+      </c>
+      <c r="F35">
+        <v>-0.005559259779497019</v>
+      </c>
+      <c r="G35">
+        <v>-0.01321207727093511</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01851159990055982</v>
+        <v>-0.02304343217746378</v>
       </c>
       <c r="C36">
-        <v>0.01705301422629161</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.01138338090500511</v>
+      </c>
+      <c r="D36">
+        <v>0.02002254628919268</v>
+      </c>
+      <c r="E36">
+        <v>0.03371727237501092</v>
+      </c>
+      <c r="F36">
+        <v>0.02061158910728057</v>
+      </c>
+      <c r="G36">
+        <v>-0.01379997501331217</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1539,114 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03841286987891841</v>
+        <v>-0.04036312675912047</v>
       </c>
       <c r="C38">
-        <v>0.01219904665862263</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.002504035977010515</v>
+      </c>
+      <c r="D38">
+        <v>0.01035755103167967</v>
+      </c>
+      <c r="E38">
+        <v>0.05963726621679741</v>
+      </c>
+      <c r="F38">
+        <v>-0.02269282121869643</v>
+      </c>
+      <c r="G38">
+        <v>0.01341623921975276</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.0864726967669389</v>
+        <v>-0.1002961616720108</v>
       </c>
       <c r="C39">
-        <v>0.08367045510901684</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.05588392044416982</v>
+      </c>
+      <c r="D39">
+        <v>0.08658211203472738</v>
+      </c>
+      <c r="E39">
+        <v>-0.01782536834826483</v>
+      </c>
+      <c r="F39">
+        <v>0.02308845447591699</v>
+      </c>
+      <c r="G39">
+        <v>0.01934585061505483</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.06505698367420977</v>
+        <v>-0.07265972887445141</v>
       </c>
       <c r="C40">
-        <v>0.05579899617877095</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.03607821157691251</v>
+      </c>
+      <c r="D40">
+        <v>0.01294774952905588</v>
+      </c>
+      <c r="E40">
+        <v>0.02352127691006149</v>
+      </c>
+      <c r="F40">
+        <v>-0.04727664737443339</v>
+      </c>
+      <c r="G40">
+        <v>0.05652658010777251</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.03872917990814586</v>
+        <v>-0.04246815470516122</v>
       </c>
       <c r="C41">
-        <v>0.01789332842677915</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.008479760350265148</v>
+      </c>
+      <c r="D41">
+        <v>0.04149076898258015</v>
+      </c>
+      <c r="E41">
+        <v>0.007597283187633164</v>
+      </c>
+      <c r="F41">
+        <v>-0.008670120332613798</v>
+      </c>
+      <c r="G41">
+        <v>0.006540315625518961</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1654,68 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04096453562531202</v>
+        <v>-0.04988532960820628</v>
       </c>
       <c r="C43">
-        <v>0.03808296076122179</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.02451917962963401</v>
+      </c>
+      <c r="D43">
+        <v>0.02934726413070108</v>
+      </c>
+      <c r="E43">
+        <v>0.01699874385786048</v>
+      </c>
+      <c r="F43">
+        <v>0.0132653875802118</v>
+      </c>
+      <c r="G43">
+        <v>-0.01183577989585363</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.08793068823505656</v>
+        <v>-0.09163802063083809</v>
       </c>
       <c r="C44">
-        <v>0.09479191150212773</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.06260280546401448</v>
+      </c>
+      <c r="D44">
+        <v>0.06152543067476426</v>
+      </c>
+      <c r="E44">
+        <v>0.0968741502973684</v>
+      </c>
+      <c r="F44">
+        <v>0.06515961360060567</v>
+      </c>
+      <c r="G44">
+        <v>0.009883246881301714</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1723,160 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.02730736668468332</v>
+        <v>-0.02877811680909905</v>
       </c>
       <c r="C46">
-        <v>0.01810169508209107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.01041963252009029</v>
+      </c>
+      <c r="D46">
+        <v>0.03328607312280323</v>
+      </c>
+      <c r="E46">
+        <v>0.01770547017735681</v>
+      </c>
+      <c r="F46">
+        <v>0.01815051357831774</v>
+      </c>
+      <c r="G46">
+        <v>0.006313278579233163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.02909877448291067</v>
+        <v>-0.03196687499354749</v>
       </c>
       <c r="C47">
-        <v>0.02286553657525352</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.01392477154690454</v>
+      </c>
+      <c r="D47">
+        <v>0.01904474345004206</v>
+      </c>
+      <c r="E47">
+        <v>0.04864185487733504</v>
+      </c>
+      <c r="F47">
+        <v>0.01392885401411086</v>
+      </c>
+      <c r="G47">
+        <v>-0.0184042738135266</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02731727967031869</v>
+        <v>-0.03134724558441338</v>
       </c>
       <c r="C48">
-        <v>0.02020788555705197</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.01218507791217719</v>
+      </c>
+      <c r="D48">
+        <v>0.03027906958631531</v>
+      </c>
+      <c r="E48">
+        <v>0.04352137288793663</v>
+      </c>
+      <c r="F48">
+        <v>0.01835095197275075</v>
+      </c>
+      <c r="G48">
+        <v>-0.003788773529997566</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>-0.1499482647773186</v>
+        <v>-0.1746003086187209</v>
       </c>
       <c r="C49">
-        <v>0.09756800806436942</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.05984306845491151</v>
+      </c>
+      <c r="D49">
+        <v>0.009501634942324883</v>
+      </c>
+      <c r="E49">
+        <v>-0.1316609747288667</v>
+      </c>
+      <c r="F49">
+        <v>0.02370807299256148</v>
+      </c>
+      <c r="G49">
+        <v>-0.0582624316031069</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.03305074723353479</v>
+        <v>-0.04037292963096722</v>
       </c>
       <c r="C50">
-        <v>0.02734063856435245</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.0218551267024994</v>
+      </c>
+      <c r="D50">
+        <v>0.03740614762668209</v>
+      </c>
+      <c r="E50">
+        <v>0.04258889734740916</v>
+      </c>
+      <c r="F50">
+        <v>0.02845162763224847</v>
+      </c>
+      <c r="G50">
+        <v>-0.02190214617780367</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.02376685528649846</v>
+        <v>-0.02535372732714661</v>
       </c>
       <c r="C51">
-        <v>0.01776990992530329</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.01012222428573412</v>
+      </c>
+      <c r="D51">
+        <v>0.02631446933154662</v>
+      </c>
+      <c r="E51">
+        <v>0.01298153841582067</v>
+      </c>
+      <c r="F51">
+        <v>0.004475312328636809</v>
+      </c>
+      <c r="G51">
+        <v>0.00893797646274419</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +1884,114 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.1388252024892221</v>
+        <v>-0.1583422205456592</v>
       </c>
       <c r="C53">
-        <v>0.1045545424160331</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.06990206329414494</v>
+      </c>
+      <c r="D53">
+        <v>0.0228572262770851</v>
+      </c>
+      <c r="E53">
+        <v>-0.0392119457493002</v>
+      </c>
+      <c r="F53">
+        <v>0.02674742388249046</v>
+      </c>
+      <c r="G53">
+        <v>0.002165622534850896</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.05172231096588429</v>
+        <v>-0.05653941095156025</v>
       </c>
       <c r="C54">
-        <v>0.02851730092017915</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01406347344523346</v>
+      </c>
+      <c r="D54">
+        <v>0.03784140759674966</v>
+      </c>
+      <c r="E54">
+        <v>0.04191848491826823</v>
+      </c>
+      <c r="F54">
+        <v>0.01474708645836983</v>
+      </c>
+      <c r="G54">
+        <v>-0.00303917669143337</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.09316340734651174</v>
+        <v>-0.1009582861602505</v>
       </c>
       <c r="C55">
-        <v>0.06567655860766071</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.04313766143939355</v>
+      </c>
+      <c r="D55">
+        <v>0.03181128311849046</v>
+      </c>
+      <c r="E55">
+        <v>0.006488730936288893</v>
+      </c>
+      <c r="F55">
+        <v>0.02855327544124749</v>
+      </c>
+      <c r="G55">
+        <v>0.006594798441019717</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1347699594569914</v>
+        <v>-0.1568136274597477</v>
       </c>
       <c r="C56">
-        <v>0.1137368992612368</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.07879478372490821</v>
+      </c>
+      <c r="D56">
+        <v>0.01750040202919721</v>
+      </c>
+      <c r="E56">
+        <v>-0.03800550275797173</v>
+      </c>
+      <c r="F56">
+        <v>0.05777873968449135</v>
+      </c>
+      <c r="G56">
+        <v>-0.01157258118615299</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +1999,896 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.1140041636839043</v>
+        <v>-0.1046637274973309</v>
       </c>
       <c r="C58">
-        <v>0.03565023056558723</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.0008581797087163891</v>
+      </c>
+      <c r="D58">
+        <v>0.05984442552406569</v>
+      </c>
+      <c r="E58">
+        <v>0.1858059863082855</v>
+      </c>
+      <c r="F58">
+        <v>0.03962841560330928</v>
+      </c>
+      <c r="G58">
+        <v>-0.06596448107257648</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1011869431201966</v>
+        <v>-0.1444941843008002</v>
       </c>
       <c r="C59">
-        <v>0.09130390568641462</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.08833545384229297</v>
+      </c>
+      <c r="D59">
+        <v>-0.3502241157113305</v>
+      </c>
+      <c r="E59">
+        <v>0.0496491956719456</v>
+      </c>
+      <c r="F59">
+        <v>-0.02473486218897128</v>
+      </c>
+      <c r="G59">
+        <v>-0.02284252318492726</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.1805540812419358</v>
+        <v>-0.2130253572119631</v>
       </c>
       <c r="C60">
-        <v>0.1229577903214166</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.08214276477162591</v>
+      </c>
+      <c r="D60">
+        <v>0.01311878836687108</v>
+      </c>
+      <c r="E60">
+        <v>-0.06881352680775413</v>
+      </c>
+      <c r="F60">
+        <v>0.03529102458793484</v>
+      </c>
+      <c r="G60">
+        <v>0.03159437543134778</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.07460734565250247</v>
+        <v>-0.08473097053628399</v>
       </c>
       <c r="C61">
-        <v>0.06092005916963371</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.03966421582848974</v>
+      </c>
+      <c r="D61">
+        <v>0.06238407747342381</v>
+      </c>
+      <c r="E61">
+        <v>-0.01726485965916793</v>
+      </c>
+      <c r="F61">
+        <v>0.01393780421958811</v>
+      </c>
+      <c r="G61">
+        <v>-0.02071921310560853</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>-0.1132073850689205</v>
+        <v>-0.1368378288840297</v>
       </c>
       <c r="C62">
-        <v>0.08225432804592435</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.05837040123318169</v>
+      </c>
+      <c r="D62">
+        <v>0.02682869618568517</v>
+      </c>
+      <c r="E62">
+        <v>-0.05657203946794014</v>
+      </c>
+      <c r="F62">
+        <v>0.02342590156703379</v>
+      </c>
+      <c r="G62">
+        <v>0.03556928883732161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.04885149878400917</v>
+        <v>-0.0516049131771188</v>
       </c>
       <c r="C63">
-        <v>0.02969547207718916</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.01738745089059174</v>
+      </c>
+      <c r="D63">
+        <v>0.03046020802579509</v>
+      </c>
+      <c r="E63">
+        <v>0.05053848709440517</v>
+      </c>
+      <c r="F63">
+        <v>0.01380605940295199</v>
+      </c>
+      <c r="G63">
+        <v>0.02274500153618752</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.1050419713531308</v>
+        <v>-0.111086485780079</v>
       </c>
       <c r="C64">
-        <v>0.04907178928567982</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.02391340287933092</v>
+      </c>
+      <c r="D64">
+        <v>0.04676046296185253</v>
+      </c>
+      <c r="E64">
+        <v>0.02844731926445947</v>
+      </c>
+      <c r="F64">
+        <v>0.05235650959599315</v>
+      </c>
+      <c r="G64">
+        <v>0.02576926603937654</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.1074831409476462</v>
+        <v>-0.1228874270539978</v>
       </c>
       <c r="C65">
-        <v>0.06818424411256892</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.043454516389621</v>
+      </c>
+      <c r="D65">
+        <v>0.01162513141662612</v>
+      </c>
+      <c r="E65">
+        <v>0.003402229567778383</v>
+      </c>
+      <c r="F65">
+        <v>0.05510864834413055</v>
+      </c>
+      <c r="G65">
+        <v>0.01665942877865996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.1332405923186789</v>
+        <v>-0.15211090738427</v>
       </c>
       <c r="C66">
-        <v>0.09378248160237394</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.05783893373887659</v>
+      </c>
+      <c r="D66">
+        <v>0.1201990768440026</v>
+      </c>
+      <c r="E66">
+        <v>-0.06148597211402037</v>
+      </c>
+      <c r="F66">
+        <v>0.04753065899952214</v>
+      </c>
+      <c r="G66">
+        <v>0.0141998580986188</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.06910215353539219</v>
+        <v>-0.07483878944582105</v>
       </c>
       <c r="C67">
-        <v>0.02628287013068408</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.009047353851370706</v>
+      </c>
+      <c r="D67">
+        <v>0.02412250593415783</v>
+      </c>
+      <c r="E67">
+        <v>0.02624938821970161</v>
+      </c>
+      <c r="F67">
+        <v>-0.002408129968512567</v>
+      </c>
+      <c r="G67">
+        <v>-0.006380126591338706</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.04989868820985658</v>
+        <v>-0.06715264017646592</v>
       </c>
       <c r="C68">
-        <v>0.0510390023187696</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.05072265946713473</v>
+      </c>
+      <c r="D68">
+        <v>-0.2661046278211351</v>
+      </c>
+      <c r="E68">
+        <v>0.04992745292089645</v>
+      </c>
+      <c r="F68">
+        <v>0.01123245645520829</v>
+      </c>
+      <c r="G68">
+        <v>-0.003374757873928009</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.04782547312627344</v>
+        <v>-0.05059544893067266</v>
       </c>
       <c r="C69">
-        <v>0.0305258398706627</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.01362088679173543</v>
+      </c>
+      <c r="D69">
+        <v>0.0349777725996689</v>
+      </c>
+      <c r="E69">
+        <v>0.01545419724433539</v>
+      </c>
+      <c r="F69">
+        <v>0.002964541964318608</v>
+      </c>
+      <c r="G69">
+        <v>-0.002118538323187023</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>-0.00477637198299957</v>
+        <v>-0.01414387394009609</v>
       </c>
       <c r="C70">
-        <v>-0.002568703326006274</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.000756250241323568</v>
+      </c>
+      <c r="D70">
+        <v>-0.00644743327257047</v>
+      </c>
+      <c r="E70">
+        <v>-0.02299796256137814</v>
+      </c>
+      <c r="F70">
+        <v>0.01189227944852427</v>
+      </c>
+      <c r="G70">
+        <v>-0.01417797861434025</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.05269140230860874</v>
+        <v>-0.07013035228565101</v>
       </c>
       <c r="C71">
-        <v>0.04889220649680412</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.04885250870921937</v>
+      </c>
+      <c r="D71">
+        <v>-0.2991516484758462</v>
+      </c>
+      <c r="E71">
+        <v>0.0471984122667624</v>
+      </c>
+      <c r="F71">
+        <v>0.03181547494004622</v>
+      </c>
+      <c r="G71">
+        <v>6.567079273467012e-05</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1290451559504979</v>
+        <v>-0.1517736569533268</v>
       </c>
       <c r="C72">
-        <v>0.07908974284570401</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.05031985300722468</v>
+      </c>
+      <c r="D72">
+        <v>0.01165190183567242</v>
+      </c>
+      <c r="E72">
+        <v>-0.09957812470688983</v>
+      </c>
+      <c r="F72">
+        <v>-0.1610958573638235</v>
+      </c>
+      <c r="G72">
+        <v>0.1153911626053987</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.2405173358957951</v>
+        <v>-0.2683482324180197</v>
       </c>
       <c r="C73">
-        <v>0.1468271002699656</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.08860770511450863</v>
+      </c>
+      <c r="D73">
+        <v>0.06261177721879678</v>
+      </c>
+      <c r="E73">
+        <v>-0.1851426468181349</v>
+      </c>
+      <c r="F73">
+        <v>0.07546465459429444</v>
+      </c>
+      <c r="G73">
+        <v>-0.2016137138844423</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.07527168707652694</v>
+        <v>-0.0892619757088312</v>
       </c>
       <c r="C74">
-        <v>0.08278872382253011</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.06227605330912355</v>
+      </c>
+      <c r="D74">
+        <v>0.03388716736011264</v>
+      </c>
+      <c r="E74">
+        <v>-0.004451705147530925</v>
+      </c>
+      <c r="F74">
+        <v>0.0003989956058273846</v>
+      </c>
+      <c r="G74">
+        <v>-0.02678267759023589</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.09398089768201121</v>
+        <v>-0.1065875489075977</v>
       </c>
       <c r="C75">
-        <v>0.07068254237084269</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.04126415616282812</v>
+      </c>
+      <c r="D75">
+        <v>0.01566632458069096</v>
+      </c>
+      <c r="E75">
+        <v>0.00440813605089347</v>
+      </c>
+      <c r="F75">
+        <v>0.06734547018191947</v>
+      </c>
+      <c r="G75">
+        <v>-0.008155988044136342</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1151442841053915</v>
+        <v>-0.1315566667287127</v>
       </c>
       <c r="C76">
-        <v>0.102341084645676</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.06982788241643069</v>
+      </c>
+      <c r="D76">
+        <v>0.05897292411271706</v>
+      </c>
+      <c r="E76">
+        <v>0.007330074303422584</v>
+      </c>
+      <c r="F76">
+        <v>0.06808990510667445</v>
+      </c>
+      <c r="G76">
+        <v>0.01348056940459124</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.1109125685509431</v>
+        <v>-0.115224712229681</v>
       </c>
       <c r="C77">
-        <v>0.06491741771280603</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.02793906370188305</v>
+      </c>
+      <c r="D77">
+        <v>0.03007322259183852</v>
+      </c>
+      <c r="E77">
+        <v>-0.008556534967485298</v>
+      </c>
+      <c r="F77">
+        <v>0.2080571454762369</v>
+      </c>
+      <c r="G77">
+        <v>0.8880906553579081</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.08372986157964295</v>
+        <v>-0.1037854651001569</v>
       </c>
       <c r="C78">
-        <v>0.04876528906360508</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.0329034388770206</v>
+      </c>
+      <c r="D78">
+        <v>0.07716923659724223</v>
+      </c>
+      <c r="E78">
+        <v>0.05337487016666416</v>
+      </c>
+      <c r="F78">
+        <v>-0.003930447587558446</v>
+      </c>
+      <c r="G78">
+        <v>0.01357087093599141</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.1336972942313602</v>
+        <v>-0.1511930941978319</v>
       </c>
       <c r="C79">
-        <v>0.1049830215910949</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.06522407773096427</v>
+      </c>
+      <c r="D79">
+        <v>0.02794264680678924</v>
+      </c>
+      <c r="E79">
+        <v>-0.02486369326952072</v>
+      </c>
+      <c r="F79">
+        <v>0.04160752296856909</v>
+      </c>
+      <c r="G79">
+        <v>-0.006237815137447779</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.0420802885633766</v>
+        <v>-0.04053402077529903</v>
       </c>
       <c r="C80">
-        <v>0.02088458316458482</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.008457136601366778</v>
+      </c>
+      <c r="D80">
+        <v>0.02857585547721335</v>
+      </c>
+      <c r="E80">
+        <v>-0.0006861406655689198</v>
+      </c>
+      <c r="F80">
+        <v>-0.0194647055977409</v>
+      </c>
+      <c r="G80">
+        <v>-0.04073398070928506</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1074026549101501</v>
+        <v>-0.1205265182509111</v>
       </c>
       <c r="C81">
-        <v>0.08409773272502119</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.05284209477766137</v>
+      </c>
+      <c r="D81">
+        <v>0.03202223194300014</v>
+      </c>
+      <c r="E81">
+        <v>-0.00665553829218794</v>
+      </c>
+      <c r="F81">
+        <v>0.04186323502889879</v>
+      </c>
+      <c r="G81">
+        <v>-0.04898638246382885</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1121706005561869</v>
+        <v>-0.1247792539450615</v>
       </c>
       <c r="C82">
-        <v>0.09638690155262554</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.06162547835567019</v>
+      </c>
+      <c r="D82">
+        <v>0.03799183415120925</v>
+      </c>
+      <c r="E82">
+        <v>-0.02954941017956554</v>
+      </c>
+      <c r="F82">
+        <v>0.06022838119262174</v>
+      </c>
+      <c r="G82">
+        <v>-0.03438206663825131</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.07218923670709751</v>
+        <v>-0.07362786407320096</v>
       </c>
       <c r="C83">
-        <v>0.02167363885287542</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.001349331226192427</v>
+      </c>
+      <c r="D83">
+        <v>0.045482005775258</v>
+      </c>
+      <c r="E83">
+        <v>0.003919382847496558</v>
+      </c>
+      <c r="F83">
+        <v>0.00937783155819721</v>
+      </c>
+      <c r="G83">
+        <v>-0.0727609069391847</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>-0.02505683648388599</v>
+        <v>-0.03269676915567582</v>
       </c>
       <c r="C84">
-        <v>0.02091731994452835</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.0188189356075515</v>
+      </c>
+      <c r="D84">
+        <v>0.01576118301421017</v>
+      </c>
+      <c r="E84">
+        <v>0.0167172136493975</v>
+      </c>
+      <c r="F84">
+        <v>-0.03768206050496032</v>
+      </c>
+      <c r="G84">
+        <v>-0.06104884845599891</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.117756404457345</v>
+        <v>-0.1208812076952991</v>
       </c>
       <c r="C85">
-        <v>0.08431958683546789</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.04586782288638822</v>
+      </c>
+      <c r="D85">
+        <v>0.02901052339251467</v>
+      </c>
+      <c r="E85">
+        <v>0.01166798065601035</v>
+      </c>
+      <c r="F85">
+        <v>0.08585161887265086</v>
+      </c>
+      <c r="G85">
+        <v>-0.001728337782013179</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.04297480480251773</v>
+        <v>-0.0453984494357407</v>
       </c>
       <c r="C86">
-        <v>0.02432287571210915</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.00894913184237474</v>
+      </c>
+      <c r="D86">
+        <v>0.01354097466894813</v>
+      </c>
+      <c r="E86">
+        <v>0.0451340984184907</v>
+      </c>
+      <c r="F86">
+        <v>0.008822875410104514</v>
+      </c>
+      <c r="G86">
+        <v>-0.01361205502368899</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.114730044830415</v>
+        <v>-0.1211250253577444</v>
       </c>
       <c r="C87">
-        <v>0.08433036153615535</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.04779818351995504</v>
+      </c>
+      <c r="D87">
+        <v>0.07241679181366546</v>
+      </c>
+      <c r="E87">
+        <v>0.01787944858703009</v>
+      </c>
+      <c r="F87">
+        <v>0.02361189810939732</v>
+      </c>
+      <c r="G87">
+        <v>0.1091968115290379</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.05252659101365532</v>
+        <v>-0.05722962396599484</v>
       </c>
       <c r="C88">
-        <v>0.04295667323707422</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.0258932354303612</v>
+      </c>
+      <c r="D88">
+        <v>0.02669438633225934</v>
+      </c>
+      <c r="E88">
+        <v>0.02012774390358494</v>
+      </c>
+      <c r="F88">
+        <v>0.009194884478697004</v>
+      </c>
+      <c r="G88">
+        <v>0.01423552394710665</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.06993311163772847</v>
+        <v>-0.1040228315091519</v>
       </c>
       <c r="C89">
-        <v>0.07996699417246482</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.0789785660468222</v>
+      </c>
+      <c r="D89">
+        <v>-0.3281016822056141</v>
+      </c>
+      <c r="E89">
+        <v>0.08429602495067652</v>
+      </c>
+      <c r="F89">
+        <v>0.05699069376184563</v>
+      </c>
+      <c r="G89">
+        <v>-0.01604643986821559</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.06365416595868871</v>
+        <v>-0.08674962998937798</v>
       </c>
       <c r="C90">
-        <v>0.07009936252833292</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.0675368178973494</v>
+      </c>
+      <c r="D90">
+        <v>-0.3084618436820902</v>
+      </c>
+      <c r="E90">
+        <v>0.06726235803272021</v>
+      </c>
+      <c r="F90">
+        <v>-0.01878317288767528</v>
+      </c>
+      <c r="G90">
+        <v>-0.01789857954071169</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.07648661703945317</v>
+        <v>-0.08685189765050677</v>
       </c>
       <c r="C91">
-        <v>0.06683070879649594</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.04341630197432032</v>
+      </c>
+      <c r="D91">
+        <v>0.03033787237112854</v>
+      </c>
+      <c r="E91">
+        <v>0.008336754335305731</v>
+      </c>
+      <c r="F91">
+        <v>0.01400724951844677</v>
+      </c>
+      <c r="G91">
+        <v>-0.02096642802840721</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.07941753614659799</v>
+        <v>-0.1028106669229993</v>
       </c>
       <c r="C92">
-        <v>0.07172402818119501</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.06714068218746831</v>
+      </c>
+      <c r="D92">
+        <v>-0.3286228994523415</v>
+      </c>
+      <c r="E92">
+        <v>0.04740634823550902</v>
+      </c>
+      <c r="F92">
+        <v>0.02067285587903923</v>
+      </c>
+      <c r="G92">
+        <v>0.003699278146694863</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.05692189969449854</v>
+        <v>-0.08352192761646127</v>
       </c>
       <c r="C93">
-        <v>0.06754763310175456</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.06765420298737977</v>
+      </c>
+      <c r="D93">
+        <v>-0.3005979107532539</v>
+      </c>
+      <c r="E93">
+        <v>0.04080161548401236</v>
+      </c>
+      <c r="F93">
+        <v>0.03333979077696175</v>
+      </c>
+      <c r="G93">
+        <v>0.009951901729964395</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1226085065492174</v>
+        <v>-0.1264357642232654</v>
       </c>
       <c r="C94">
-        <v>0.07933117295460521</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.03764371650946807</v>
+      </c>
+      <c r="D94">
+        <v>0.05609753507648566</v>
+      </c>
+      <c r="E94">
+        <v>-0.03083894540611248</v>
+      </c>
+      <c r="F94">
+        <v>0.04788899667582556</v>
+      </c>
+      <c r="G94">
+        <v>-0.02574055970833791</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1139881522577202</v>
+        <v>-0.1213372186174005</v>
       </c>
       <c r="C95">
-        <v>0.05632382559278632</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.02516084998700542</v>
+      </c>
+      <c r="D95">
+        <v>0.05235264375415627</v>
+      </c>
+      <c r="E95">
+        <v>-0.01113625064697694</v>
+      </c>
+      <c r="F95">
+        <v>0.04208956631700257</v>
+      </c>
+      <c r="G95">
+        <v>-0.008272666255975123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +2896,91 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>-0.1934785520355297</v>
+        <v>-0.2222113926801989</v>
       </c>
       <c r="C97">
-        <v>0.07952176585768182</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.04126095169769736</v>
+      </c>
+      <c r="D97">
+        <v>-0.01149713969471782</v>
+      </c>
+      <c r="E97">
+        <v>-0.1873184988964509</v>
+      </c>
+      <c r="F97">
+        <v>-0.8898730666986882</v>
+      </c>
+      <c r="G97">
+        <v>0.1560565894871626</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.229293226872161</v>
+        <v>-0.2566399085341999</v>
       </c>
       <c r="C98">
-        <v>0.1273307630438374</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.06629422594013046</v>
+      </c>
+      <c r="D98">
+        <v>0.04091324863540841</v>
+      </c>
+      <c r="E98">
+        <v>-0.1471357070999106</v>
+      </c>
+      <c r="F98">
+        <v>0.03144345585648865</v>
+      </c>
+      <c r="G98">
+        <v>-0.275131599596097</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>-0.5775602433464101</v>
+        <v>-0.3729377420902213</v>
       </c>
       <c r="C99">
-        <v>-0.8062435102222041</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.9167329331813728</v>
+      </c>
+      <c r="D99">
+        <v>-0.07817859314088028</v>
+      </c>
+      <c r="E99">
+        <v>0.04328773130001203</v>
+      </c>
+      <c r="F99">
+        <v>0.03870492934896063</v>
+      </c>
+      <c r="G99">
+        <v>-0.007868091478979225</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +2988,45 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.03517737651356082</v>
+        <v>-0.0422698948082989</v>
       </c>
       <c r="C101">
-        <v>0.03213415953565927</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.02465730204358246</v>
+      </c>
+      <c r="D101">
+        <v>0.01041398869317023</v>
+      </c>
+      <c r="E101">
+        <v>0.03664621776232226</v>
+      </c>
+      <c r="F101">
+        <v>0.0111944502348186</v>
+      </c>
+      <c r="G101">
+        <v>-0.0112063296819828</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
